--- a/data/trans_bre/P34_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P34_R-Estudios-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-9.985956972844255</v>
+        <v>-10.0910780679159</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.416309665063993</v>
+        <v>-3.768318339043166</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-7.338082056230158</v>
+        <v>-7.666294578461086</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.748405749867394</v>
+        <v>3.195463806246954</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.2528110804557667</v>
+        <v>-0.258563032261547</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.09164406473997971</v>
+        <v>-0.1007295750255295</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1561603066617595</v>
+        <v>-0.1620259229966283</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.08459478293755963</v>
+        <v>0.07196695650970156</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-2.028786486544351</v>
+        <v>-2.041716124293421</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.285083649387244</v>
+        <v>4.801915308235008</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.24087245726892</v>
+        <v>2.065142944008727</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13.06990094013186</v>
+        <v>13.01457946083588</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.05769020834541092</v>
+        <v>-0.0591449197560892</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1628776100658692</v>
+        <v>0.1505488528698564</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05077341920620887</v>
+        <v>0.04836771517183668</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.3460019889563407</v>
+        <v>0.3435586108565308</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-6.077210854190102</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-3.654585996268611</v>
+        <v>-3.654585996268628</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.2575075981006067</v>
@@ -749,7 +749,7 @@
         <v>-0.1955697291911412</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.1234639666006308</v>
+        <v>-0.1234639666006313</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-12.32440570729378</v>
+        <v>-12.40451224900818</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-7.988075567894043</v>
+        <v>-7.856520872144886</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-8.870730703155777</v>
+        <v>-9.013636417614698</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-6.526401113885118</v>
+        <v>-6.729557573161856</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3289969359767033</v>
+        <v>-0.3316869037505591</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2671227729781702</v>
+        <v>-0.2620731809252093</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2727688790039197</v>
+        <v>-0.2780518687859312</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.208312463409622</v>
+        <v>-0.2134024098665934</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-6.003038136040887</v>
+        <v>-6.066825943200241</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-2.182578058187598</v>
+        <v>-1.432309959185129</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-3.161612915901411</v>
+        <v>-3.089151426969892</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-0.6727433438931197</v>
+        <v>-0.7815619927664141</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.1756657208909492</v>
+        <v>-0.1736184072463666</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.08178983494291503</v>
+        <v>-0.0525740222108415</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.1054618357277695</v>
+        <v>-0.1056301350396236</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.02268149266117204</v>
+        <v>-0.02749109387919658</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-12.1648503925143</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-6.495572637629099</v>
+        <v>-6.495572637629104</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.06911961777567319</v>
@@ -849,7 +849,7 @@
         <v>-0.2622027852914031</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.1304580880148513</v>
+        <v>-0.1304580880148514</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-10.25500240683631</v>
+        <v>-9.916014943044955</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-11.08338430094196</v>
+        <v>-11.47900899361395</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-17.87616082351353</v>
+        <v>-18.19664008221763</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-11.51983785064091</v>
+        <v>-11.86109294504258</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1887657652098875</v>
+        <v>-0.1796282738010578</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.265907111396021</v>
+        <v>-0.2672742239922026</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.3587066294502181</v>
+        <v>-0.3750153600862163</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.2189080719316894</v>
+        <v>-0.2206951389350683</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.569014870466904</v>
+        <v>2.915062484969545</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.007629981616051</v>
+        <v>1.487737015720332</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-5.66133062841355</v>
+        <v>-6.140944930730987</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-0.8433110357737684</v>
+        <v>-1.401960581335913</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.05392644561048604</v>
+        <v>0.06167927146458698</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05388731609505281</v>
+        <v>0.04214223992719892</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>-0.1301656261043036</v>
+        <v>-0.1376611506745344</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.0182283371884751</v>
+        <v>-0.0286103957767712</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-5.387816089836167</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-1.065951873860532</v>
+        <v>-1.065951873860543</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.1937036423572263</v>
@@ -949,7 +949,7 @@
         <v>-0.1467286881215407</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.02999529096317369</v>
+        <v>-0.029995290963174</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-9.718560218348657</v>
+        <v>-9.824301584769149</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-4.658536632858524</v>
+        <v>-4.558486788821626</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-7.624254152385021</v>
+        <v>-7.820460034621873</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-3.374649334336251</v>
+        <v>-3.231267089093537</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2434461918315877</v>
+        <v>-0.2446022233220607</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1420092471246844</v>
+        <v>-0.1387226662458114</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2022103852995308</v>
+        <v>-0.2072434804621597</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.0900546860664018</v>
+        <v>-0.08657233643274972</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-5.059379091639865</v>
+        <v>-5.544858316308396</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-0.02493556845854375</v>
+        <v>0.08588096454488747</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-2.979882061896861</v>
+        <v>-3.043113503157824</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.271837357059343</v>
+        <v>1.321681032782654</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.1367111905750302</v>
+        <v>-0.1452594374011126</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.0008014498137749458</v>
+        <v>0.00305885263924224</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.08383332764363172</v>
+        <v>-0.08695765736024255</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.03669886620047082</v>
+        <v>0.03960592325987562</v>
       </c>
     </row>
     <row r="16">
